--- a/templates/tiempo_extra.xlsx
+++ b/templates/tiempo_extra.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>REPORTE DE TIEMPO EXTRA</t>
   </si>
@@ -108,69 +108,81 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <color rgb="FF2F5496"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF2F5496"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF2F5496"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -178,27 +190,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -206,49 +223,58 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF757070"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF757070"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -692,134 +718,111 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1068,8 +1071,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1100,33 +1103,33 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -1141,40 +1144,40 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="42" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1200,36 +1203,36 @@
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="40" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="14"/>
@@ -1259,220 +1262,220 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="55" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="56" t="s">
+      <c r="F14" s="42"/>
+      <c r="G14" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="51"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="54"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62">
+      <c r="A16" s="39">
         <v>1</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62">
+      <c r="A17" s="39">
         <v>2</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62">
+      <c r="A18" s="39">
         <v>3</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62">
+      <c r="A19" s="39">
         <v>4</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="46"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62">
+      <c r="A20" s="39">
         <v>5</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="46"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62">
+      <c r="A21" s="39">
         <v>6</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="46"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62">
+      <c r="A22" s="39">
         <v>7</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="46"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62">
+      <c r="A23" s="39">
         <v>8</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="46"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62">
+      <c r="A24" s="39">
         <v>9</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="46"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62">
+      <c r="A25" s="39">
         <v>10</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="46"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62">
+      <c r="A26" s="39">
         <v>11</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="46"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62">
+      <c r="A27" s="39">
         <v>12</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="46"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="19"/>
       <c r="H28" s="20" t="s">
         <v>16</v>
@@ -1553,21 +1556,21 @@
       <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="38"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="38"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,39 +1598,35 @@
       <c r="J37" s="34"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="69" t="s">
+      <c r="I38" s="57"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="69"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="72" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="68"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2593,6 +2592,38 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:G4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H25:I25"/>
@@ -2609,38 +2640,6 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A2:G4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
